--- a/biology/Botanique/Caveau_de_dégustation/Caveau_de_dégustation.xlsx
+++ b/biology/Botanique/Caveau_de_dégustation/Caveau_de_dégustation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caveau_de_d%C3%A9gustation</t>
+          <t>Caveau_de_dégustation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un caveau de dégustation est un espace commercial qui permet la dégustation du vin dans un domaine viticole, chez un caviste, pour le public. Il est destiné à la dégustation des vins qui sont à la vente dans l’établissement.
 Il est à différencier d'une salle de dégustation, utilisée pour l’enseignement ou les jurys de concours ou d'agrément, et qui permet de réaliser dans des conditions idéales la dégustation du vin, de manière professionnelle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caveau_de_d%C3%A9gustation</t>
+          <t>Caveau_de_dégustation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le caveau est généralement équipé de sièges autour d'une table ou d'un bar, où sont présents des crachoirs permettant de rejeter le vin après sa dégustation.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caveau_de_d%C3%A9gustation</t>
+          <t>Caveau_de_dégustation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Conditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La dégustation est gérée par le professionnel responsable du caveau. Cela peut être le vigneron, le caviste, ou un vendeur technico-commercial.
 L'ambiance se veut chaleureuse du fait des objectifs marketings, et doit provoquer l’acte d'achat de la part du consommateur. On retrouve alors souvent les différentes bouteilles exposées, de la documentation, des décorations, etc. La lumière peut être naturelle ou artificielle, cette variation est un désavantage pour l’appréciation visuelle du vin. 
